--- a/Jadwal ODOP 9.xlsx
+++ b/Jadwal ODOP 9.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7050"/>
+    <workbookView windowWidth="20490" windowHeight="7080"/>
   </bookViews>
   <sheets>
     <sheet name="Jadwal 2021" sheetId="1" r:id="rId1"/>
@@ -5180,9 +5180,9 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26:J27"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15" customHeight="true"/>

--- a/Jadwal ODOP 9.xlsx
+++ b/Jadwal ODOP 9.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7080"/>
+    <workbookView windowWidth="20490" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Jadwal 2021" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
     <t>Founder Kopling, Emerging Writer Ubud Writers Festival 2019 (Zen)</t>
   </si>
   <si>
-    <t>Tips membuat paragraf pembuka pada fiksi dan non fiksi</t>
+    <t>Tips membuat paragraf pembuka pada fiksi dan non-fiksi</t>
   </si>
   <si>
     <t>EBI, PUEBI, dan Self Editing</t>
@@ -2998,13 +2998,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="177" formatCode="m/d/yyyy\ h:mm:ss"/>
-    <numFmt numFmtId="178" formatCode="d\-mmm"/>
+    <numFmt numFmtId="177" formatCode="d\-mmm"/>
+    <numFmt numFmtId="178" formatCode="dd\-mmm"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="m/d/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="dd\-mmm"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -3062,31 +3062,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3101,7 +3080,36 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3113,9 +3121,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3130,45 +3159,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3181,26 +3188,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3298,7 +3298,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3310,19 +3352,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3334,7 +3364,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3346,31 +3460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3382,103 +3472,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4080,16 +4080,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -4130,21 +4154,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -4154,171 +4163,162 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="54" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="55" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="53" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="51" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="56" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="50" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="51" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="53" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="51" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="53" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="52" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="54" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="55" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="55" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="49" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="56" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -4350,7 +4350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
@@ -4365,7 +4365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
@@ -4374,7 +4374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
@@ -4413,19 +4413,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
@@ -4602,7 +4602,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4913,7 +4913,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true" quotePrefix="true"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" quotePrefix="true">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" quotePrefix="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5180,9 +5180,9 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15" customHeight="true"/>
